--- a/UserAPIProject/src/test/resources/excelData/testdata.xlsx
+++ b/UserAPIProject/src/test/resources/excelData/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manal_\eclipse-workspace\UserAPIProject\src\test\resources\excelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manal_\git\UserAPIOct24\UserAPIProject\src\test\resources\excelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58AD24C-F085-4990-97B1-834122AB413D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCFED7C-E372-4DBA-A3EA-5BE1098EC707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
   <si>
     <t>Firstname</t>
   </si>
@@ -134,6 +134,78 @@
   </si>
   <si>
     <t>**@31</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>2257784565</t>
+  </si>
+  <si>
+    <t>team5john@qa.com</t>
+  </si>
+  <si>
+    <t>xyz56</t>
+  </si>
+  <si>
+    <t>Charls</t>
+  </si>
+  <si>
+    <t>NewYork</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>QE</t>
+  </si>
+  <si>
+    <t>2257784566</t>
+  </si>
+  <si>
+    <t>team5jim@qa.com</t>
+  </si>
+  <si>
+    <t>Rik</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>2257784567</t>
+  </si>
+  <si>
+    <t>Rik1234</t>
+  </si>
+  <si>
+    <t>team5rik@qa.com</t>
+  </si>
+  <si>
+    <t>xy-12</t>
+  </si>
+  <si>
+    <t>60092</t>
+  </si>
+  <si>
+    <t>Testing@#$%</t>
+  </si>
+  <si>
+    <t>team5rik!#@qa.com</t>
+  </si>
+  <si>
+    <t>2257784568</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>2257784569</t>
+  </si>
+  <si>
+    <t>team5tom@qa.com</t>
   </si>
 </sst>
 </file>
@@ -223,24 +295,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -255,6 +309,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -264,7 +344,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -277,28 +357,52 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1435,10 +1539,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -1495,7 +1599,7 @@
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1515,60 +1619,240 @@
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="13.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.7" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="A4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="19">
+        <v>56734</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="14.7" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="A5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A10" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{C27D41B1-245C-4285-AAF1-9C83A007E817}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{6968C35C-DD24-4752-BC6F-EFAF07E10E9A}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{FB5D94D6-B792-4D2A-B625-36B0F9ACFEB4}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{A02A2A03-D3EF-4A45-9507-0059F78A85E1}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{C240FD28-1D47-4DE0-A665-F01499924FCF}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{6FA0EFB3-9CEC-4FB0-B779-6AE9BC1D71F9}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{12DD652F-94EB-4EDF-9C35-970195AD2711}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{3D2F86E4-3B8A-43E3-A2D9-09DC27D28EFC}"/>
+    <hyperlink ref="B8" r:id="rId9" display="Testing@#$%" xr:uid="{25600510-C4D4-4A4B-AB52-8F26CC63C9D3}"/>
+    <hyperlink ref="D9" r:id="rId10" xr:uid="{BA9A02A2-2638-4F52-927B-0F42086D5DA0}"/>
+    <hyperlink ref="B9" r:id="rId11" display="Testing@#$%" xr:uid="{53570089-FEFB-44CF-B261-83D99F8DBBD4}"/>
+    <hyperlink ref="D10" r:id="rId12" xr:uid="{8E368A17-8F8E-42EA-B13F-495B91909ED5}"/>
+    <hyperlink ref="B10" r:id="rId13" display="Testing@#$%" xr:uid="{F49BF598-2E51-42BA-95E2-C0DE13E6CAB0}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
@@ -1582,7 +1866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865C7CB6-7489-44E6-9DE7-8FBC4E8F2229}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1593,7 +1877,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
@@ -1601,15 +1885,15 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <v>7676788</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
@@ -1685,7 +1969,7 @@
       <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1714,7 +1998,7 @@
       <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1755,22 +2039,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="13.8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="13.8">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="13.8">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
     </row>
